--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125052a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125052a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>total</t>
   </si>
@@ -22,9 +22,6 @@
     <t>local de ocorrência do último furto</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>própria residência ou de terceiros</t>
   </si>
   <si>
@@ -43,16 +40,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,27 +516,27 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -568,767 +559,757 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1.28</v>
+      </c>
+      <c r="D5">
+        <v>2.73</v>
+      </c>
+      <c r="E5">
+        <v>1.95</v>
+      </c>
+      <c r="F5">
+        <v>4.66</v>
+      </c>
+      <c r="G5">
+        <v>3.47</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.28</v>
+        <v>2.93</v>
       </c>
       <c r="D6">
-        <v>2.73</v>
+        <v>12.98</v>
       </c>
       <c r="E6">
-        <v>1.95</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="F6">
-        <v>4.66</v>
+        <v>31.57</v>
       </c>
       <c r="G6">
-        <v>3.47</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.93</v>
+        <v>2.28</v>
       </c>
       <c r="D7">
-        <v>12.98</v>
+        <v>7.52</v>
       </c>
       <c r="E7">
-        <v>8.880000000000001</v>
+        <v>5.83</v>
       </c>
       <c r="F7">
-        <v>31.57</v>
+        <v>14.49</v>
       </c>
       <c r="G7">
-        <v>11.5</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>4.76</v>
+      </c>
+      <c r="D8">
+        <v>21.21</v>
+      </c>
+      <c r="E8">
+        <v>13.22</v>
+      </c>
+      <c r="F8">
+        <v>71.72</v>
+      </c>
+      <c r="G8">
+        <v>19.41</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.28</v>
+        <v>5.41</v>
       </c>
       <c r="D9">
-        <v>7.52</v>
+        <v>13.79</v>
       </c>
       <c r="E9">
-        <v>5.83</v>
+        <v>16.12</v>
       </c>
       <c r="F9">
-        <v>14.49</v>
+        <v>71.53</v>
       </c>
       <c r="G9">
-        <v>8.859999999999999</v>
+        <v>28.59</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.76</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="D10">
-        <v>21.21</v>
+        <v>22.98</v>
       </c>
       <c r="E10">
-        <v>13.22</v>
+        <v>13.15</v>
       </c>
       <c r="F10">
-        <v>71.72</v>
+        <v>18.62</v>
       </c>
       <c r="G10">
-        <v>19.41</v>
+        <v>21.88</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.41</v>
+        <v>6.03</v>
       </c>
       <c r="D11">
-        <v>13.79</v>
+        <v>27.21</v>
       </c>
       <c r="E11">
-        <v>16.12</v>
-      </c>
-      <c r="F11">
-        <v>71.53</v>
+        <v>20.11</v>
       </c>
       <c r="G11">
-        <v>28.59</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.210000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="D12">
-        <v>22.98</v>
+        <v>12.81</v>
       </c>
       <c r="E12">
-        <v>13.15</v>
+        <v>10.05</v>
       </c>
       <c r="F12">
-        <v>18.62</v>
+        <v>27.08</v>
       </c>
       <c r="G12">
-        <v>21.88</v>
+        <v>15.67</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.03</v>
+        <v>6.45</v>
       </c>
       <c r="D13">
-        <v>27.21</v>
+        <v>24.62</v>
       </c>
       <c r="E13">
-        <v>20.11</v>
+        <v>23.17</v>
+      </c>
+      <c r="F13">
+        <v>96.63</v>
       </c>
       <c r="G13">
-        <v>31.48</v>
+        <v>30.33</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.9</v>
+        <v>4.99</v>
       </c>
       <c r="D14">
-        <v>12.81</v>
+        <v>18.37</v>
       </c>
       <c r="E14">
-        <v>10.05</v>
+        <v>17.14</v>
       </c>
       <c r="F14">
-        <v>27.08</v>
+        <v>101.33</v>
       </c>
       <c r="G14">
-        <v>15.67</v>
+        <v>22.59</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.45</v>
+        <v>2.37</v>
       </c>
       <c r="D15">
-        <v>24.62</v>
+        <v>5.46</v>
       </c>
       <c r="E15">
-        <v>23.17</v>
+        <v>4.05</v>
       </c>
       <c r="F15">
-        <v>96.63</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="G15">
-        <v>30.33</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.99</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="D16">
-        <v>18.37</v>
+        <v>17.18</v>
       </c>
       <c r="E16">
-        <v>17.14</v>
+        <v>21.18</v>
       </c>
       <c r="F16">
-        <v>101.33</v>
+        <v>54.5</v>
       </c>
       <c r="G16">
-        <v>22.59</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.37</v>
+        <v>8.15</v>
       </c>
       <c r="D17">
-        <v>5.46</v>
+        <v>16.72</v>
       </c>
       <c r="E17">
-        <v>4.05</v>
+        <v>12.6</v>
       </c>
       <c r="F17">
-        <v>8.609999999999999</v>
+        <v>59.72</v>
       </c>
       <c r="G17">
-        <v>5.62</v>
+        <v>22.62</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.029999999999999</v>
+        <v>4.41</v>
       </c>
       <c r="D18">
-        <v>17.18</v>
+        <v>12.54</v>
       </c>
       <c r="E18">
-        <v>21.18</v>
+        <v>6.35</v>
       </c>
       <c r="F18">
-        <v>54.5</v>
+        <v>14.18</v>
       </c>
       <c r="G18">
-        <v>14.29</v>
+        <v>11.38</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.15</v>
+        <v>6.78</v>
       </c>
       <c r="D19">
-        <v>16.72</v>
+        <v>19.67</v>
       </c>
       <c r="E19">
-        <v>12.6</v>
+        <v>17.47</v>
       </c>
       <c r="F19">
-        <v>59.72</v>
+        <v>27.67</v>
       </c>
       <c r="G19">
-        <v>22.62</v>
+        <v>21.22</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.41</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="D20">
-        <v>12.54</v>
+        <v>18.41</v>
       </c>
       <c r="E20">
-        <v>6.35</v>
+        <v>12.96</v>
       </c>
       <c r="F20">
-        <v>14.18</v>
+        <v>49.74</v>
       </c>
       <c r="G20">
-        <v>11.38</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.78</v>
+        <v>5.77</v>
       </c>
       <c r="D21">
-        <v>19.67</v>
+        <v>12.71</v>
       </c>
       <c r="E21">
-        <v>17.47</v>
+        <v>7.11</v>
       </c>
       <c r="F21">
-        <v>27.67</v>
+        <v>18.05</v>
       </c>
       <c r="G21">
-        <v>21.22</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.289999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="D22">
-        <v>18.41</v>
+        <v>17.48</v>
       </c>
       <c r="E22">
-        <v>12.96</v>
+        <v>14.84</v>
       </c>
       <c r="F22">
-        <v>49.74</v>
+        <v>41.43</v>
       </c>
       <c r="G22">
-        <v>28.2</v>
+        <v>34.82</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.77</v>
+        <v>7.31</v>
       </c>
       <c r="D23">
-        <v>12.71</v>
+        <v>17.94</v>
       </c>
       <c r="E23">
-        <v>7.11</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="F23">
-        <v>18.05</v>
+        <v>23.58</v>
       </c>
       <c r="G23">
-        <v>13.03</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.1</v>
+        <v>4.46</v>
       </c>
       <c r="D24">
-        <v>17.48</v>
+        <v>10.19</v>
       </c>
       <c r="E24">
-        <v>14.84</v>
+        <v>7.23</v>
       </c>
       <c r="F24">
-        <v>41.43</v>
+        <v>17.32</v>
       </c>
       <c r="G24">
-        <v>34.82</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.31</v>
+        <v>2.55</v>
       </c>
       <c r="D25">
-        <v>17.94</v>
+        <v>4.66</v>
       </c>
       <c r="E25">
-        <v>9.279999999999999</v>
+        <v>2.97</v>
       </c>
       <c r="F25">
-        <v>23.58</v>
+        <v>8.42</v>
       </c>
       <c r="G25">
-        <v>24.48</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>4.46</v>
+        <v>3.05</v>
       </c>
       <c r="D26">
-        <v>10.19</v>
+        <v>6.98</v>
       </c>
       <c r="E26">
-        <v>7.23</v>
+        <v>4.76</v>
       </c>
       <c r="F26">
-        <v>17.32</v>
+        <v>16.03</v>
       </c>
       <c r="G26">
-        <v>11.08</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>2.55</v>
+        <v>6.33</v>
       </c>
       <c r="D27">
-        <v>4.66</v>
+        <v>16.45</v>
       </c>
       <c r="E27">
-        <v>2.97</v>
+        <v>11.18</v>
       </c>
       <c r="F27">
-        <v>8.42</v>
+        <v>34.54</v>
       </c>
       <c r="G27">
-        <v>5.94</v>
+        <v>25.19</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>3.05</v>
+        <v>7.18</v>
       </c>
       <c r="D28">
-        <v>6.98</v>
+        <v>13.74</v>
       </c>
       <c r="E28">
-        <v>4.76</v>
+        <v>5.19</v>
       </c>
       <c r="F28">
-        <v>16.03</v>
+        <v>12.57</v>
       </c>
       <c r="G28">
-        <v>9.09</v>
+        <v>15.11</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>6.33</v>
+        <v>4.39</v>
       </c>
       <c r="D29">
-        <v>16.45</v>
+        <v>6.78</v>
       </c>
       <c r="E29">
-        <v>11.18</v>
+        <v>4.43</v>
       </c>
       <c r="F29">
-        <v>34.54</v>
+        <v>13.43</v>
       </c>
       <c r="G29">
-        <v>25.19</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>7.18</v>
+        <v>2.63</v>
       </c>
       <c r="D30">
-        <v>13.74</v>
+        <v>6.48</v>
       </c>
       <c r="E30">
-        <v>5.19</v>
+        <v>4.66</v>
       </c>
       <c r="F30">
-        <v>12.57</v>
+        <v>11.45</v>
       </c>
       <c r="G30">
-        <v>15.11</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>4.39</v>
+        <v>3.98</v>
       </c>
       <c r="D31">
-        <v>6.78</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="E31">
-        <v>4.43</v>
+        <v>7.67</v>
       </c>
       <c r="F31">
-        <v>13.43</v>
+        <v>14.2</v>
       </c>
       <c r="G31">
-        <v>8.85</v>
+        <v>12.59</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>2.63</v>
+        <v>4.7</v>
       </c>
       <c r="D32">
-        <v>6.48</v>
+        <v>13.91</v>
       </c>
       <c r="E32">
-        <v>4.66</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F32">
-        <v>11.45</v>
+        <v>57.21</v>
       </c>
       <c r="G32">
-        <v>8.369999999999999</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>3.98</v>
+        <v>4.46</v>
       </c>
       <c r="D33">
-        <v>8.050000000000001</v>
+        <v>13.52</v>
       </c>
       <c r="E33">
-        <v>7.67</v>
+        <v>7.47</v>
       </c>
       <c r="F33">
-        <v>14.2</v>
+        <v>19.71</v>
       </c>
       <c r="G33">
-        <v>12.59</v>
+        <v>14.42</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>4.7</v>
+        <v>2.86</v>
       </c>
       <c r="D34">
-        <v>13.91</v>
+        <v>6.25</v>
       </c>
       <c r="E34">
-        <v>9.640000000000001</v>
+        <v>4.86</v>
       </c>
       <c r="F34">
-        <v>57.21</v>
+        <v>9.84</v>
       </c>
       <c r="G34">
-        <v>16.5</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>4.46</v>
+        <v>5.94</v>
       </c>
       <c r="D35">
-        <v>13.52</v>
+        <v>16.14</v>
       </c>
       <c r="E35">
-        <v>7.47</v>
+        <v>9.07</v>
       </c>
       <c r="F35">
-        <v>19.71</v>
+        <v>42.08</v>
       </c>
       <c r="G35">
-        <v>14.42</v>
+        <v>16.66</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>2.86</v>
+        <v>5.35</v>
       </c>
       <c r="D36">
-        <v>6.25</v>
+        <v>11.17</v>
       </c>
       <c r="E36">
-        <v>4.86</v>
+        <v>15.76</v>
       </c>
       <c r="F36">
-        <v>9.84</v>
+        <v>38.45</v>
       </c>
       <c r="G36">
-        <v>7.83</v>
+        <v>22.27</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>5.94</v>
+        <v>4.46</v>
       </c>
       <c r="D37">
-        <v>16.14</v>
+        <v>10.27</v>
       </c>
       <c r="E37">
-        <v>9.07</v>
+        <v>7.28</v>
       </c>
       <c r="F37">
-        <v>42.08</v>
+        <v>11.57</v>
       </c>
       <c r="G37">
-        <v>16.66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>5.35</v>
-      </c>
-      <c r="D38">
-        <v>11.17</v>
-      </c>
-      <c r="E38">
-        <v>15.76</v>
-      </c>
-      <c r="F38">
-        <v>38.45</v>
-      </c>
-      <c r="G38">
-        <v>22.27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>4.46</v>
-      </c>
-      <c r="D39">
-        <v>10.27</v>
-      </c>
-      <c r="E39">
-        <v>7.28</v>
-      </c>
-      <c r="F39">
-        <v>11.57</v>
-      </c>
-      <c r="G39">
         <v>11.12</v>
       </c>
     </row>
